--- a/biology/Botanique/Nectria_cinnabarina/Nectria_cinnabarina.xlsx
+++ b/biology/Botanique/Nectria_cinnabarina/Nectria_cinnabarina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nectria cinnabarina, la Nectrie couleur de cinabre[1], est une espèce de champignons ascomycètes de l'ordre des Hypocreales et de la famille des Nectriaceae. C'est l'espèce type du genre Nectria. Le stade anamorphe est Tubercularia vulgaris[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nectria cinnabarina, la Nectrie couleur de cinabre, est une espèce de champignons ascomycètes de l'ordre des Hypocreales et de la famille des Nectriaceae. C'est l'espèce type du genre Nectria. Le stade anamorphe est Tubercularia vulgaris.
 Ce champignon phytopathogène est responsable du dépérissement nectrien, maladie cryptogamique qui affecte le pommier et d'autres espèces d'arbres ou arbustes (pêcher, groseillier, framboisier).
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nectria cinnabarina se caractérise par des périthèces rouges, globuleuses, charnues, verruqueuses, qui deviennent souvent cupulées en séchant, les ascospores sont cloisonnées (1 à 3 cloisons)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nectria cinnabarina se caractérise par des périthèces rouges, globuleuses, charnues, verruqueuses, qui deviennent souvent cupulées en séchant, les ascospores sont cloisonnées (1 à 3 cloisons).
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition de Nectria cinnabarina comprend l'ensemble des régions tempérées de l'hémisphère nord[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition de Nectria cinnabarina comprend l'ensemble des régions tempérées de l'hémisphère nord.
 </t>
         </is>
       </c>
@@ -574,13 +590,50 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Nectria cinnabarina (Tode) Fr., 1849[3].
-L'espèce a été initialement classée dans le genre Sphaeria sous le basionyme Sphaeria cinnabarina Tode, 1791[3].
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Nectria couleur de cinabre[4], corail des groseilliers[5], dépérissement nectrien du framboisier[5], dépérissement nectrien du groseillier[5], dépérissement nectrien du pêcher[5], dépérissement nectrien du pommier[5], dessèchement des rameaux du groseillier[5], rouge du mûrier[5], taches coralliennes du pommier[5].
-Liste des synonymes
-Nectria cinnabarina a pour synonymes[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Nectria cinnabarina (Tode) Fr., 1849.
+L'espèce a été initialement classée dans le genre Sphaeria sous le basionyme Sphaeria cinnabarina Tode, 1791.
+Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Nectria couleur de cinabre, corail des groseilliers, dépérissement nectrien du framboisier, dépérissement nectrien du groseillier, dépérissement nectrien du pêcher, dépérissement nectrien du pommier, dessèchement des rameaux du groseillier, rouge du mûrier, taches coralliennes du pommier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nectria_cinnabarina</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nectria_cinnabarina</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nectria cinnabarina a pour synonymes :
 Cucurbitaria cinnabarina (Tode) Grev., 1825
 Nectria offuscata Berk. &amp; M.A. Curtis, 1875
 Nectria russellii Berk. &amp; M.A. Curtis, 1875
@@ -614,8 +667,43 @@
 Tubercularia sarmentorum Fr., 1815
 Tubercularia subdiaphana Schwein., 1832
 Tubercularia vaginata Corda, 1837
-Liste des formes, sous-espèces et variétés
-Selon MycoBank                                            (12 février 2024)[3] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Nectria_cinnabarina</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nectria_cinnabarina</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des formes, sous-espèces et variétés</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (12 février 2024) :
 Nectria cinnabarina * amygdalina P. Karst., 1889
 Nectria cinnabarina f. aceris Chernetsk., 1929
 Nectria cinnabarina f. cinnabarina
@@ -642,31 +730,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Nectria_cinnabarina</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Nectria_cinnabarina</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Dépérissement nectrien</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le dépérissement nectrien, ou maladie des taches coralliennes ou encore maladie du corail, est une maladie cryptogamique provoquée par un champignon ascomycète de la famille des Nectriaceae, Nectria cinnabarina.
 Cette maladie affecte les arbres et arbustes ligneux de nombreuses espèces, en particulier les pommiers, pêchers, framboisiers et groseilliers, mais aussi souvent les érables et quelques autres espèces telles que les ormes, les chênes ou les albizia.
